--- a/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
+++ b/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF44C10D-E603-4B76-B978-F5604A220148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BF6D38-2B10-4F5E-B5F5-E20FFF6B6F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="GAUSS" sheetId="2" r:id="rId1"/>
+    <sheet name="TIPIFICAR" sheetId="3" r:id="rId2"/>
+    <sheet name="Edén" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
   <si>
     <t>EJEMPLO</t>
   </si>
@@ -174,12 +176,280 @@
   <si>
     <t>Es decir, si escojo 100 bombillas, la probabilidad que su media de duración supere las 1524 horas es de 6,68%</t>
   </si>
+  <si>
+    <t>DESDE</t>
+  </si>
+  <si>
+    <t>HASTA</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>DESVIACIÓN</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD</t>
+  </si>
+  <si>
+    <t>DESVIACION</t>
+  </si>
+  <si>
+    <t>CASO N(0, 1)</t>
+  </si>
+  <si>
+    <t>&lt; Z</t>
+  </si>
+  <si>
+    <t>CASO ÁREA POR ENCIMA DE UN VALOR POSITIVO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(Z &gt; z) = 1 - P(Z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤ z)</t>
+    </r>
+  </si>
+  <si>
+    <t>CASO ÁREA POR ENCIMA DE UN VALOR NEGATIVO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(Z &gt; -z) = P(Z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤ z)</t>
+    </r>
+  </si>
+  <si>
+    <t>CASO ÁREA POR DEBAJO DE UN VALOR NEGATIVO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(Z ≤ -z) = 1 - P(Z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤ z)</t>
+    </r>
+  </si>
+  <si>
+    <t>CASO ÁREA ENTRE DOS VALORES</t>
+  </si>
+  <si>
+    <r>
+      <t>P(z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; Z ≤ z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) = P(Z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤ z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>) - P(Z ≤ z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>TIPIFICAR</t>
+  </si>
+  <si>
+    <t>Tipificar consiste en transformar la variable de nuestro ejercicio en su equivalente en una distribución N(0, 1) para poder usar "la tabla" (es decir, tipificar es la forma de trabajar con muestras cuya media no sea 0 &gt; N(x, 1)</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>z =</t>
+  </si>
+  <si>
+    <t>(muestral)</t>
+  </si>
+  <si>
+    <t>(poblacional)</t>
+  </si>
+  <si>
+    <t>Es decir, calcular en una muestra de media 170 los sujetos por debajo de 185 equivale a calcular en una distribución (muestra) de media cero cuando z sea 1.25</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>1.25 para Z cuando N(0, 1)</t>
+  </si>
+  <si>
+    <t>185 para X cuando N(170, 12)</t>
+  </si>
+  <si>
+    <t>Es decir, son equivalentes &gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(X </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤ 185) = P(Z ≤ 1.25)</t>
+    </r>
+  </si>
+  <si>
+    <t>Así determinamos que el 89.44% de la población mide menos de 185 centímetos</t>
+  </si>
+  <si>
+    <t>¿Y LA ESTATURA?</t>
+  </si>
+  <si>
+    <t>Si z = 0.84 &gt; despejamos &gt;</t>
+  </si>
+  <si>
+    <t>(a z se llega usando "la tabla")</t>
+  </si>
+  <si>
+    <t>X - 170</t>
+  </si>
+  <si>
+    <t>Recordemos &gt; a z llegamos usando la tabla &gt; ¿cómo calculamos la altura?</t>
+  </si>
+  <si>
+    <t>0.84 * 12 + 170 = X</t>
+  </si>
+  <si>
+    <t>Comprobemos &gt;</t>
+  </si>
+  <si>
+    <t>¿QUÉ ESTATURA DEJA POR DEBAJO DEL 80%?</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
+  <si>
+    <t>N(500, 5)</t>
+  </si>
+  <si>
+    <t>P para X = 496</t>
+  </si>
+  <si>
+    <t>Es decir, hay una posibilidad de 21.19% de que una caja pese menos de 496 gramos.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,16 +514,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -279,11 +607,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,63 +703,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,14 +825,198 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409168" cy="630109"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="852487"/>
+              <a:ext cx="1409168" cy="630109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="852487"/>
+              <a:ext cx="1409168" cy="630109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑧=  (𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇)/𝜎</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409168" cy="1017394"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -420,6 +1058,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -529,7 +1168,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CuadroTexto 1">
@@ -863,11 +1502,594 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21408397-C648-4BC0-951D-88C72C3B8EB0}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.NORM.DIST(B1,B2,B3,TRUE)</f>
+        <v>0.33846111951068963</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f>B2</f>
+        <v>170</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>B3</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.NORM.DIST(B6,B7,B8,TRUE)</f>
+        <v>0.9522096477271853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C11" s="25">
+        <f>B9-B4</f>
+        <v>0.61374852821649561</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <f>_xlfn.NORM.DIST(B15,B16,B17,TRUE)</f>
+        <v>0.60256811320176051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="25">
+        <f>B18</f>
+        <v>0.60256811320176051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D219C6-F030-4D5B-B8AD-19F84E3FC51E}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <f>_xlfn.NORM.DIST(J5,J6,J7,TRUE)</f>
+        <v>0.21185539858339661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="41">
+        <f>J8-I1</f>
+        <v>0.21185539858339661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.NORM.DIST(B10,B11,B12,TRUE)</f>
+        <v>0.89435022633314476</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.NORM.DIST(F10,F11,F12,TRUE)</f>
+        <v>0.89435022633314476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="25">
+        <f>B13-B8</f>
+        <v>0.89435022633314476</v>
+      </c>
+      <c r="F14" s="25">
+        <f>F13-F8</f>
+        <v>0.89435022633314476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="31">
+        <f>(B10-B11)/B12</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="37">
+        <f>NORMSINV(0.8)</f>
+        <v>0.84162123357291474</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="23" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="23" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="F35" s="24">
+        <f>(180.08-170)/12</f>
+        <v>0.84000000000000108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="5">
+        <v>12</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1">
+        <f>C33*12+170</f>
+        <v>180.09945480287499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <f>F41</f>
+        <v>180.09945480287499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <f>_xlfn.NORM.DIST(D43,D44,D45,TRUE)</f>
+        <v>0.80000000000000049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="41">
+        <f>D46-D41</f>
+        <v>0.80000000000000049</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H11:K12"/>
+    <mergeCell ref="A2:F4"/>
+    <mergeCell ref="A17:F19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,219 +2114,219 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="8" t="str">
+      <c r="M3" s="11" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="6">
         <v>160</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="I4" s="18"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="19"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="11" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="8" t="str">
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="11" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="17">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="str">
+      <c r="C16" s="23" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10" t="str">
+      <c r="E16" s="23" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="24">
         <v>0.15</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="22">
+      <c r="I16" s="11"/>
+      <c r="J16" s="16">
         <v>16</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="23"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="5">
         <v>160</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1123,62 +2345,62 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="I23" s="12" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="I23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1192,15 +2414,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="I6:Q7"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
     <mergeCell ref="A23:G26"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -1213,6 +2426,15 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="I6:Q7"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
+++ b/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BF6D38-2B10-4F5E-B5F5-E20FFF6B6F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB9C7A5-E019-4595-B3CF-85B7CB0B6B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="GAUSS" sheetId="2" r:id="rId1"/>
-    <sheet name="TIPIFICAR" sheetId="3" r:id="rId2"/>
-    <sheet name="Edén" sheetId="1" r:id="rId3"/>
+    <sheet name="Edén" sheetId="1" r:id="rId1"/>
+    <sheet name="Príncipe" sheetId="2" r:id="rId2"/>
+    <sheet name="Tipificar" sheetId="3" r:id="rId3"/>
+    <sheet name="Confianza" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>EJEMPLO</t>
   </si>
@@ -424,18 +425,6 @@
     <t>¿QUÉ ESTATURA DEJA POR DEBAJO DEL 80%?</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Recuento</t>
-  </si>
-  <si>
     <t>N(500, 5)</t>
   </si>
   <si>
@@ -443,19 +432,278 @@
   </si>
   <si>
     <t>Es decir, hay una posibilidad de 21.19% de que una caja pese menos de 496 gramos.</t>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>CALCULAR EL INTERVALO DE CONFIANZA DE 95%</t>
+  </si>
+  <si>
+    <r>
+      <t>IC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>95%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (-1.96; 1.96)</t>
+    </r>
+  </si>
+  <si>
+    <t>¿PARA EL 90%?</t>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Neumáticos, duración en kilómetros.</t>
+  </si>
+  <si>
+    <t>Distribución &gt; N(48.000, 3.000)</t>
+  </si>
+  <si>
+    <t>Calcular INTERVALO de confianza del 80%</t>
+  </si>
+  <si>
+    <t>μ =</t>
+  </si>
+  <si>
+    <t>σ =</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+  </si>
+  <si>
+    <t>para N(0, 1)</t>
+  </si>
+  <si>
+    <t>Este rango calculado (-1.28; 1.28) es para N(0, 1)</t>
+  </si>
+  <si>
+    <t>Necesito convertirlo a N(48.000; 3.000)</t>
+  </si>
+  <si>
+    <t>De nuevo &gt; el objetivo es calcular la respuesta en kilómetros.</t>
+  </si>
+  <si>
+    <t>Usando la fórmula de tipificar, volvemos a despejar la x (pues la z ya la conozco) &gt;</t>
+  </si>
+  <si>
+    <t>Despejando &gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 48.000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 48.000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>RESPUESTA</t>
+  </si>
+  <si>
+    <r>
+      <t>IC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>80%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = (44.160; 51.840)</t>
+    </r>
+  </si>
+  <si>
+    <t>Es decir, el 80% de sus neumáticos dura entre 44.160 kms y 51.840 kms.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -565,6 +813,51 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -688,12 +981,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -709,25 +1002,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -736,73 +1096,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,190 +1155,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1409168" cy="630109"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="CuadroTexto 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1543050" y="852487"/>
-              <a:ext cx="1409168" cy="630109"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑧</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>= </m:t>
-                    </m:r>
-                    <m:f>
-                      <m:fPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:fPr>
-                      <m:num>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜇</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜎</m:t>
-                        </m:r>
-                      </m:den>
-                    </m:f>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="ax-AR" sz="2400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="CuadroTexto 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1543050" y="852487"/>
-              <a:ext cx="1409168" cy="630109"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑧=  (𝑥−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝜇)/𝜎</a:t>
-              </a:r>
-              <a:endParaRPr lang="ax-AR" sz="2400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1230,6 +1379,191 @@
                 <a:t>𝑛)</a:t>
               </a:r>
               <a:endParaRPr lang="es-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409168" cy="630109"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="852487"/>
+              <a:ext cx="1409168" cy="630109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="852487"/>
+              <a:ext cx="1409168" cy="630109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑧=  (𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇)/𝜎</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1502,589 +1836,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21408397-C648-4BC0-951D-88C72C3B8EB0}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1">
-        <v>165</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>170</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <f>_xlfn.NORM.DIST(B1,B2,B3,TRUE)</f>
-        <v>0.33846111951068963</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <f>B2</f>
-        <v>170</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <f>B3</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <f>_xlfn.NORM.DIST(B6,B7,B8,TRUE)</f>
-        <v>0.9522096477271853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="C11" s="25">
-        <f>B9-B4</f>
-        <v>0.61374852821649561</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <f>_xlfn.NORM.DIST(B15,B16,B17,TRUE)</f>
-        <v>0.60256811320176051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="25">
-        <f>B18</f>
-        <v>0.60256811320176051</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D219C6-F030-4D5B-B8AD-19F84E3FC51E}">
-  <dimension ref="A1:K47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8">
-        <f>_xlfn.NORM.DIST(J5,J6,J7,TRUE)</f>
-        <v>0.21185539858339661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="41">
-        <f>J8-I1</f>
-        <v>0.21185539858339661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>185</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>170</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <f>_xlfn.NORM.DIST(B10,B11,B12,TRUE)</f>
-        <v>0.89435022633314476</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13">
-        <f>_xlfn.NORM.DIST(F10,F11,F12,TRUE)</f>
-        <v>0.89435022633314476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="25">
-        <f>B13-B8</f>
-        <v>0.89435022633314476</v>
-      </c>
-      <c r="F14" s="25">
-        <f>F13-F8</f>
-        <v>0.89435022633314476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="31">
-        <f>(B10-B11)/B12</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="34"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="37">
-        <f>NORMSINV(0.8)</f>
-        <v>0.84162123357291474</v>
-      </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="23" t="str">
-        <f>"="</f>
-        <v>=</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="23" t="str">
-        <f>"="</f>
-        <v>=</v>
-      </c>
-      <c r="F35" s="24">
-        <f>(180.08-170)/12</f>
-        <v>0.84000000000000108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="5">
-        <v>12</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="1">
-        <f>C33*12+170</f>
-        <v>180.09945480287499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="25"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43">
-        <f>F41</f>
-        <v>180.09945480287499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46">
-        <f>_xlfn.NORM.DIST(D43,D44,D45,TRUE)</f>
-        <v>0.80000000000000049</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="41">
-        <f>D46-D41</f>
-        <v>0.80000000000000049</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H11:K12"/>
-    <mergeCell ref="A2:F4"/>
-    <mergeCell ref="A17:F19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
@@ -2114,139 +1865,139 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="34" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="11" t="str">
+      <c r="M3" s="29" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="29" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="6">
         <v>160</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="38" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2269,64 +2020,64 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="11" t="str">
+      <c r="I15" s="29" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="11" t="str">
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="29" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="42">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="23" t="str">
+      <c r="C16" s="30" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23" t="str">
+      <c r="E16" s="30" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="31">
         <v>0.15</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="16">
+      <c r="I16" s="29"/>
+      <c r="J16" s="41">
         <v>16</v>
       </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="17"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="42"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="5">
         <v>160</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2345,62 +2096,62 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="I23" s="18" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="I23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2414,6 +2165,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
     <mergeCell ref="A23:G26"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -2430,14 +2186,888 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="I6:Q7"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21408397-C648-4BC0-951D-88C72C3B8EB0}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.NORM.DIST(B1,B2,B3,TRUE)</f>
+        <v>0.33846111951068963</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f>B2</f>
+        <v>170</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>B3</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.NORM.DIST(B6,B7,B8,TRUE)</f>
+        <v>0.9522096477271853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C11" s="12">
+        <f>B9-B4</f>
+        <v>0.61374852821649561</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <f>_xlfn.NORM.DIST(B15,B16,B17,TRUE)</f>
+        <v>0.60256811320176051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="12">
+        <f>B18</f>
+        <v>0.60256811320176051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D219C6-F030-4D5B-B8AD-19F84E3FC51E}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <f>_xlfn.NORM.DIST(J5,J6,J7,TRUE)</f>
+        <v>0.21185539858339661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="24">
+        <f>J8-I1</f>
+        <v>0.21185539858339661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.NORM.DIST(B10,B11,B12,TRUE)</f>
+        <v>0.89435022633314476</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.NORM.DIST(F10,F11,F12,TRUE)</f>
+        <v>0.89435022633314476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <f>B13-B8</f>
+        <v>0.89435022633314476</v>
+      </c>
+      <c r="F14" s="12">
+        <f>F13-F8</f>
+        <v>0.89435022633314476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="16">
+        <f>(B10-B11)/B12</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="20">
+        <f>NORMSINV(0.8)</f>
+        <v>0.84162123357291474</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="30" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="30" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="F35" s="31">
+        <f>(180.08-170)/12</f>
+        <v>0.84000000000000108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="5">
+        <v>12</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1">
+        <f>C33*12+170</f>
+        <v>180.09945480287499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <f>F41</f>
+        <v>180.09945480287499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <f>_xlfn.NORM.DIST(D43,D44,D45,TRUE)</f>
+        <v>0.80000000000000049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="24">
+        <f>D46-D41</f>
+        <v>0.80000000000000049</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H11:K12"/>
+    <mergeCell ref="A2:F4"/>
+    <mergeCell ref="A17:F19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA4316-A617-4E0C-B3B3-53E424C3B075}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="44">
+        <f>F2*-1</f>
+        <v>-1.9599639845400536</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="44">
+        <f>NORMSINV(0.975)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="49">
+        <f>ROUND(F2,2)</f>
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.45">
+      <c r="B4" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="47">
+        <f>F7*-1</f>
+        <v>-1.6448536269514715</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="47">
+        <f>NORMSINV(0.95)</f>
+        <v>1.6448536269514715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="49">
+        <f>ROUND(F7,3)</f>
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3">
+        <f>NORMSINV(0.9)</f>
+        <v>1.2815515655446006</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="30" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="30" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="F26" s="31">
+        <f>ROUND(C18*-1,2)</f>
+        <v>-1.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C29" s="30" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="30" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="F29" s="31">
+        <f>ROUND(C18,2)</f>
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="30"/>
+      <c r="D30" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="F34" s="1">
+        <f>F26*D27+48000</f>
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="D35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="F35" s="1">
+        <f>F29*D27+48000</f>
+        <v>51840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
+++ b/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB9C7A5-E019-4595-B3CF-85B7CB0B6B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA64C037-8BD1-45CF-8210-18C22621A491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Edén" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
   <si>
     <t>EJEMPLO</t>
   </si>
@@ -685,6 +685,9 @@
   </si>
   <si>
     <t>Es decir, el 80% de sus neumáticos dura entre 44.160 kms y 51.840 kms.</t>
+  </si>
+  <si>
+    <t>LUBINAS</t>
   </si>
 </sst>
 </file>
@@ -1045,60 +1048,6 @@
     <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1136,6 +1085,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1837,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,139 +1868,139 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="46" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="29" t="str">
+      <c r="M3" s="40" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="40" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="6">
         <v>160</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="52" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2020,64 +2023,64 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="29" t="str">
+      <c r="I15" s="40" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="29" t="str">
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="40" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N15" s="42">
+      <c r="N15" s="43">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="30" t="str">
+      <c r="C16" s="49" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="30" t="str">
+      <c r="E16" s="49" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="50">
         <v>0.15</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="41">
+      <c r="I16" s="40"/>
+      <c r="J16" s="42">
         <v>16</v>
       </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="5">
         <v>160</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2096,80 +2099,186 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="I23" s="32" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="I23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="M26" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M27" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>1500</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M28" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
+      <c r="M29" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29">
+        <f>_xlfn.NORM.DIST(N26,N27,N28,TRUE)</f>
+        <v>0.93319279873114191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="24">
+        <f>1-N29</f>
+        <v>6.6807201268858085E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>1500</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>160</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <f>_xlfn.NORM.DIST(D31,D32,D33,TRUE)</f>
+        <v>0.5596176923702425</v>
+      </c>
+      <c r="F34">
+        <f>NORMSINV(D34)</f>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <f>100/SQRT(20)</f>
+        <v>22.360679774997894</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="24">
+        <f>1-D34</f>
+        <v>0.4403823076297575</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <f>_xlfn.NORM.DIST(N32,N33,N34,TRUE)</f>
+        <v>1.2673659338734126E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="24">
+        <f>N35</f>
+        <v>1.2673659338734126E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
     <mergeCell ref="A23:G26"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
@@ -2186,6 +2295,11 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="I6:Q7"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2369,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D219C6-F030-4D5B-B8AD-19F84E3FC51E}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,22 +2509,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
       <c r="I3" t="s">
         <v>65</v>
       </c>
@@ -2419,12 +2533,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
@@ -2504,12 +2618,12 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2527,10 +2641,10 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2568,30 +2682,30 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2620,10 +2734,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="57"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2654,39 +2768,39 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="30" t="str">
+      <c r="C35" s="49" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="30" t="str">
+      <c r="E35" s="49" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="50">
         <f>(180.08-170)/12</f>
         <v>0.84000000000000108</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="30"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5">
         <v>12</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2780,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA4316-A617-4E0C-B3B3-53E424C3B075}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2799,29 +2913,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="26">
         <f>F2*-1</f>
         <v>-1.9599639845400536</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="26">
         <f>NORMSINV(0.975)</f>
         <v>1.9599639845400536</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="49">
+      <c r="E3" s="31">
         <f>ROUND(F2,2)</f>
         <v>1.96</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="27" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2831,24 +2945,24 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="29">
         <f>F7*-1</f>
         <v>-1.6448536269514715</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="30"/>
+      <c r="E7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="29">
         <f>NORMSINV(0.95)</f>
         <v>1.6448536269514715</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="49">
+      <c r="F8" s="31">
         <f>ROUND(F7,3)</f>
         <v>1.645</v>
       </c>
@@ -2874,7 +2988,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="3">
@@ -2884,7 +2998,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="3">
@@ -2894,121 +3008,121 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="3">
         <f>NORMSINV(0.9)</f>
         <v>1.2815515655446006</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="34" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="30" t="str">
+      <c r="C26" s="49" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="30" t="str">
+      <c r="E26" s="49" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="50">
         <f>ROUND(C18*-1,2)</f>
         <v>-1.28</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="30"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="5">
         <v>3000</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="C29" s="30" t="str">
+      <c r="C29" s="49" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="30" t="str">
+      <c r="E29" s="49" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="50">
         <f>ROUND(C18,2)</f>
         <v>1.28</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="30"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="5">
         <v>3000</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -3040,32 +3154,32 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="37" t="s">
         <v>91</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="56" t="s">
+      <c r="D37" s="38" t="s">
         <v>92</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="39" t="s">
         <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="A23:F24"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
+++ b/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA64C037-8BD1-45CF-8210-18C22621A491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23201EF1-0A78-4E73-A327-8387464B2609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Edén" sheetId="1" r:id="rId1"/>
-    <sheet name="Príncipe" sheetId="2" r:id="rId2"/>
-    <sheet name="Tipificar" sheetId="3" r:id="rId3"/>
+    <sheet name="Príncipe" sheetId="2" r:id="rId1"/>
+    <sheet name="Tipificar" sheetId="3" r:id="rId2"/>
+    <sheet name="Inferencia" sheetId="1" r:id="rId3"/>
     <sheet name="Confianza" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejercicios" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
   <si>
     <t>EJEMPLO</t>
   </si>
@@ -687,14 +688,128 @@
     <t>Es decir, el 80% de sus neumáticos dura entre 44.160 kms y 51.840 kms.</t>
   </si>
   <si>
-    <t>LUBINAS</t>
+    <t>EJEMPLO DE LAS LUBINAS</t>
+  </si>
+  <si>
+    <t>INTERVALO DE CONFIANZA LA MEDIA POBLACIONAL (μ)</t>
+  </si>
+  <si>
+    <t>IC = (X̄ - error, X̄ + error)</t>
+  </si>
+  <si>
+    <r>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>α/2</t>
+    </r>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>IC = (X̄ - error; X̄ + error)</t>
+  </si>
+  <si>
+    <r>
+      <t>IC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>90%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= (90 - 2.08; 90 + 2.08)</t>
+    </r>
+  </si>
+  <si>
+    <t>El planteo &gt;</t>
+  </si>
+  <si>
+    <t>El tiempo diario que los adultos de una determinada ciudad dedican al deporte tiene una desviación típica de 20 minutos. Para una muestra de 250 habitantes hay un promedio de 90 minutos diarios. Calcular un intervalo de confianza del 90% para μ</t>
+  </si>
+  <si>
+    <t>poblacion</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desviacion </t>
+  </si>
+  <si>
+    <t>media muestral</t>
+  </si>
+  <si>
+    <t>calcular intervalo confianza poblacional 95%</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>rango</t>
+  </si>
+  <si>
+    <t>RAIZ(N)</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>AHORA CALCULAR N PARA QUE RANGO CF = 5 CMS</t>
+  </si>
+  <si>
+    <t>RANGO</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>COMPROBAR</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>MERMELADA</t>
+  </si>
+  <si>
+    <t>desviación</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,6 +977,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -986,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1091,6 +1213,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,12 +1269,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1127,18 +1277,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,6 +1309,191 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1409168" cy="630109"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="852487"/>
+              <a:ext cx="1409168" cy="630109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CuadroTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1543050" y="852487"/>
+              <a:ext cx="1409168" cy="630109"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑧=  (𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="es-ES" sz="2400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇)/𝜎</a:t>
+              </a:r>
+              <a:endParaRPr lang="ax-AR" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1392,16 +1728,16 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1409168" cy="630109"/>
+    <xdr:ext cx="2559868" cy="699102"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1409,7 +1745,7 @@
             <xdr:cNvPr id="2" name="CuadroTexto 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3117A30D-DFE0-DA48-01EC-4028FE2D99D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1417,8 +1753,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1543050" y="852487"/>
-              <a:ext cx="1409168" cy="630109"/>
+              <a:off x="4467225" y="681037"/>
+              <a:ext cx="2559868" cy="699102"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1456,7 +1792,7 @@
                       <a:rPr lang="es-ES" sz="2400" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>𝑧</m:t>
+                      <m:t>𝑒𝑟𝑟𝑜𝑟</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="es-ES" sz="2400" b="0" i="1">
@@ -1464,11 +1800,52 @@
                       </a:rPr>
                       <m:t>= </m:t>
                     </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑧</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>/2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∙</m:t>
+                    </m:r>
                     <m:f>
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="es-ES" sz="2400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -1476,31 +1853,33 @@
                         <m:r>
                           <a:rPr lang="es-ES" sz="2400" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>−</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝜇</m:t>
-                        </m:r>
-                      </m:num>
-                      <m:den>
-                        <m:r>
-                          <a:rPr lang="es-ES" sz="2400" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                           <m:t>𝜎</m:t>
                         </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="es-ES" sz="2400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑁</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:rad>
                       </m:den>
                     </m:f>
                   </m:oMath>
@@ -1517,7 +1896,7 @@
             <xdr:cNvPr id="2" name="CuadroTexto 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3A7E1D-AB91-B39E-8510-91EDAD7321C1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3117A30D-DFE0-DA48-01EC-4028FE2D99D0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1525,8 +1904,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1543050" y="852487"/>
-              <a:ext cx="1409168" cy="630109"/>
+              <a:off x="4467225" y="681037"/>
+              <a:ext cx="2559868" cy="699102"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1557,14 +1936,14 @@
                 <a:rPr lang="es-ES" sz="2400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑧=  (𝑥−</a:t>
+                <a:t>𝑒𝑟𝑟𝑜𝑟= 𝑧_(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="es-ES" sz="2400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝜇)/𝜎</a:t>
+                <a:t>𝛼/2)∙𝜎/√𝑁</a:t>
               </a:r>
               <a:endParaRPr lang="ax-AR" sz="2400"/>
             </a:p>
@@ -1839,11 +2218,594 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21408397-C648-4BC0-951D-88C72C3B8EB0}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>165</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.NORM.DIST(B1,B2,B3,TRUE)</f>
+        <v>0.33846111951068963</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f>B2</f>
+        <v>170</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>B3</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <f>_xlfn.NORM.DIST(B6,B7,B8,TRUE)</f>
+        <v>0.9522096477271853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="C11" s="12">
+        <f>B9-B4</f>
+        <v>0.61374852821649561</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <f>_xlfn.NORM.DIST(B15,B16,B17,TRUE)</f>
+        <v>0.60256811320176051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="12">
+        <f>B18</f>
+        <v>0.60256811320176051</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D219C6-F030-4D5B-B8AD-19F84E3FC51E}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <f>_xlfn.NORM.DIST(J5,J6,J7,TRUE)</f>
+        <v>0.21185539858339661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="24">
+        <f>J8-I1</f>
+        <v>0.21185539858339661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.NORM.DIST(B10,B11,B12,TRUE)</f>
+        <v>0.89435022633314476</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.NORM.DIST(F10,F11,F12,TRUE)</f>
+        <v>0.89435022633314476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <f>B13-B8</f>
+        <v>0.89435022633314476</v>
+      </c>
+      <c r="F14" s="12">
+        <f>F13-F8</f>
+        <v>0.89435022633314476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="16">
+        <f>(B10-B11)/B12</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="49"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="20">
+        <f>NORMSINV(0.8)</f>
+        <v>0.84162123357291474</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="51" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="51" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="F35" s="52">
+        <f>(180.08-170)/12</f>
+        <v>0.84000000000000108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="5">
+        <v>12</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1">
+        <f>C33*12+170</f>
+        <v>180.09945480287499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <f>F41</f>
+        <v>180.09945480287499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46">
+        <f>_xlfn.NORM.DIST(D43,D44,D45,TRUE)</f>
+        <v>0.80000000000000049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="24">
+        <f>D46-D41</f>
+        <v>0.80000000000000049</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H11:K12"/>
+    <mergeCell ref="A2:F4"/>
+    <mergeCell ref="A17:F19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,7 +2813,7 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
     <col min="10" max="13" width="4.7109375" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.7109375" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" customWidth="1"/>
   </cols>
@@ -1868,139 +2830,139 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="58" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="40" t="str">
+      <c r="M3" s="50" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="50" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="6">
         <v>160</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="52" t="s">
+      <c r="Q3" s="62" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
       <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="52"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2023,64 +2985,64 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="40" t="str">
+      <c r="I15" s="50" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="40" t="str">
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="50" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="55">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="49" t="str">
+      <c r="C16" s="51" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="49" t="str">
+      <c r="E16" s="51" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="52">
         <v>0.15</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="42">
+      <c r="I16" s="50"/>
+      <c r="J16" s="54">
         <v>16</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="43"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="55"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="5">
         <v>160</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2099,62 +3061,62 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="I23" s="44" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="I23" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
       <c r="M26" s="17" t="s">
         <v>46</v>
       </c>
@@ -2307,595 +3269,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21408397-C648-4BC0-951D-88C72C3B8EB0}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1">
-        <v>165</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>170</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
-        <f>_xlfn.NORM.DIST(B1,B2,B3,TRUE)</f>
-        <v>0.33846111951068963</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <f>B2</f>
-        <v>170</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <f>B3</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <f>_xlfn.NORM.DIST(B6,B7,B8,TRUE)</f>
-        <v>0.9522096477271853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="C11" s="12">
-        <f>B9-B4</f>
-        <v>0.61374852821649561</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.26</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <f>_xlfn.NORM.DIST(B15,B16,B17,TRUE)</f>
-        <v>0.60256811320176051</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="12">
-        <f>B18</f>
-        <v>0.60256811320176051</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D219C6-F030-4D5B-B8AD-19F84E3FC51E}">
-  <dimension ref="A1:K47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8">
-        <f>_xlfn.NORM.DIST(J5,J6,J7,TRUE)</f>
-        <v>0.21185539858339661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="24">
-        <f>J8-I1</f>
-        <v>0.21185539858339661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>185</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>170</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <f>_xlfn.NORM.DIST(B10,B11,B12,TRUE)</f>
-        <v>0.89435022633314476</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13">
-        <f>_xlfn.NORM.DIST(F10,F11,F12,TRUE)</f>
-        <v>0.89435022633314476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <f>B13-B8</f>
-        <v>0.89435022633314476</v>
-      </c>
-      <c r="F14" s="12">
-        <f>F13-F8</f>
-        <v>0.89435022633314476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="16">
-        <f>(B10-B11)/B12</f>
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="57"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="20">
-        <f>NORMSINV(0.8)</f>
-        <v>0.84162123357291474</v>
-      </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="49" t="str">
-        <f>"="</f>
-        <v>=</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="49" t="str">
-        <f>"="</f>
-        <v>=</v>
-      </c>
-      <c r="F35" s="50">
-        <f>(180.08-170)/12</f>
-        <v>0.84000000000000108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="5">
-        <v>12</v>
-      </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="1">
-        <f>C33*12+170</f>
-        <v>180.09945480287499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43">
-        <f>F41</f>
-        <v>180.09945480287499</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46">
-        <f>_xlfn.NORM.DIST(D43,D44,D45,TRUE)</f>
-        <v>0.80000000000000049</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="24">
-        <f>D46-D41</f>
-        <v>0.80000000000000049</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="H11:K12"/>
-    <mergeCell ref="A2:F4"/>
-    <mergeCell ref="A17:F19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA4316-A617-4E0C-B3B3-53E424C3B075}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,14 +3284,18 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>68</v>
       </c>
@@ -2927,24 +3310,27 @@
         <f>NORMSINV(0.975)</f>
         <v>1.9599639845400536</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E3" s="31">
         <f>ROUND(F2,2)</f>
         <v>1.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="B4" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
         <v>73</v>
       </c>
@@ -2961,33 +3347,72 @@
         <v>1.6448536269514715</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
       <c r="F8" s="31">
         <f>ROUND(F7,3)</f>
         <v>1.645</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H8" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="43">
+        <f>NORMSINV(0.95)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="43">
+        <f>I8*(20/SQRT(250))</f>
+        <v>2.0805935515022287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="42"/>
+      <c r="I10" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="24" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="17"/>
+      <c r="I12" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="40">
+        <f>90-L8</f>
+        <v>87.919406448497767</v>
+      </c>
+      <c r="M12" s="40">
+        <f>90+L8</f>
+        <v>92.080593551502233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
         <v>78</v>
       </c>
@@ -2996,8 +3421,16 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
         <v>79</v>
       </c>
@@ -3006,16 +3439,28 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>80</v>
       </c>
       <c r="C17" s="32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>47</v>
       </c>
@@ -3026,18 +3471,24 @@
       <c r="D18" s="34" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>84</v>
       </c>
@@ -3046,85 +3497,85 @@
       <c r="D22" s="36"/>
       <c r="E22" s="36"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="40" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="49" t="str">
+      <c r="C26" s="51" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="49" t="str">
+      <c r="E26" s="51" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="52">
         <f>ROUND(C18*-1,2)</f>
         <v>-1.28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="5">
         <v>3000</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="C29" s="49" t="str">
+      <c r="E27" s="51"/>
+      <c r="F27" s="52"/>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="C29" s="51" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="49" t="str">
+      <c r="E29" s="51" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="52">
         <f>ROUND(C18,2)</f>
         <v>1.28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="49"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="51"/>
       <c r="D30" s="5">
         <v>3000</v>
       </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-    </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -3171,7 +3622,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="H15:M17"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
@@ -3179,7 +3632,314 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A23:F24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C5E47-CCB6-4DE6-A0B3-ACBDAB1D29D8}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="64">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5">
+        <f>NORMSINV(0.975)</f>
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7">
+        <f>B7*(B2/SQRT(B3))</f>
+        <v>1.7530450811531626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="31">
+        <f>B4-E7</f>
+        <v>172.24695491884682</v>
+      </c>
+      <c r="D9" s="31">
+        <f>B4+E7</f>
+        <v>175.75304508115318</v>
+      </c>
+      <c r="E9">
+        <f>D9-C9</f>
+        <v>3.5060901623063501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="B12" s="5" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="C12" s="41">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="D12" s="41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="65"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="64">
+        <f>NORMSINV(0.95)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="67">
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D17">
+        <f>C16</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="E17" s="41">
+        <f>B2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D20">
+        <f>D17</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="E20" s="66">
+        <f>E17</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>B17</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D23">
+        <f>D20*(E20/E21)</f>
+        <v>13.158829015611772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f>"="</f>
+        <v>=</v>
+      </c>
+      <c r="D24">
+        <f>D23^2</f>
+        <v>173.15478106210628</v>
+      </c>
+      <c r="F24" s="39">
+        <f>ROUNDUP(D24,0)</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="5">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27">
+        <f>NORMSINV(0.975)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="5">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28">
+        <f>E27*(B27/SQRT(B28))</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="5">
+        <f>16000/B28</f>
+        <v>160</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="69">
+        <f>B30-E28</f>
+        <v>158.04003601545995</v>
+      </c>
+      <c r="E30" s="70">
+        <f>B30+E28</f>
+        <v>161.95996398454005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="5">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
+++ b/P&E/PDF/Inferencial/Clase 09 (Inferencia estadística).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP5\P&amp;E\PDF\Inferencial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23201EF1-0A78-4E73-A327-8387464B2609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B0EA9D-A35B-4371-86F2-84133507A368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Príncipe" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
   <si>
     <t>EJEMPLO</t>
   </si>
@@ -804,18 +804,81 @@
   <si>
     <t>media</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(-1.88 &lt; Z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤ 1.88) =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(Z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤ 1.88) - P(Z &gt; 1.88) =</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P(Z </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤ 1.88) - [1 - P(Z ≤ 1.88)] =</t>
+    </r>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>N POBLACIONAL</t>
+  </si>
+  <si>
+    <t>N MUESTRAL</t>
+  </si>
+  <si>
+    <t>APUNTE</t>
+  </si>
+  <si>
+    <t>1 - e</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1106,12 +1169,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,10 +1190,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1139,157 +1202,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2393,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D219C6-F030-4D5B-B8AD-19F84E3FC51E}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,22 +2490,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="I3" t="s">
         <v>65</v>
       </c>
@@ -2443,12 +2514,12 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
@@ -2528,12 +2599,12 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2551,10 +2622,10 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2592,30 +2663,30 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2644,10 +2715,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="49"/>
+      <c r="D27" s="58"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2678,39 +2749,39 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="51" t="str">
+      <c r="C35" s="60" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="51" t="str">
+      <c r="E35" s="60" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="61">
         <f>(180.08-170)/12</f>
         <v>0.84000000000000108</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="51"/>
+      <c r="C36" s="60"/>
       <c r="D36" s="5">
         <v>12</v>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2804,8 +2875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32:N36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,139 +2901,139 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="50" t="str">
+      <c r="M3" s="59" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="59" t="s">
         <v>21</v>
       </c>
       <c r="O3" s="6">
         <v>160</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="Q3" s="71" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
       <c r="O4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="71"/>
     </row>
     <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -2985,64 +3056,64 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I15" s="50" t="str">
+      <c r="I15" s="59" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="50" t="str">
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="59" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="64">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="51" t="str">
+      <c r="C16" s="60" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="51" t="str">
+      <c r="E16" s="60" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="61">
         <v>0.15</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="54">
+      <c r="I16" s="59"/>
+      <c r="J16" s="63">
         <v>16</v>
       </c>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="55"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="64"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="5">
         <v>160</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -3061,62 +3132,62 @@
       </c>
     </row>
     <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="I23" s="56" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="I23" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
       <c r="M26" s="17" t="s">
         <v>46</v>
       </c>
@@ -3273,7 +3344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA4316-A617-4E0C-B3B3-53E424C3B075}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3421,14 +3492,14 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B16" s="30" t="s">
@@ -3439,12 +3510,12 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
@@ -3453,12 +3524,12 @@
       <c r="C17" s="32">
         <v>0.2</v>
       </c>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
@@ -3498,82 +3569,82 @@
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="51" t="str">
+      <c r="C26" s="60" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="51" t="str">
+      <c r="E26" s="60" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="61">
         <f>ROUND(C18*-1,2)</f>
         <v>-1.28</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="60"/>
       <c r="D27" s="5">
         <v>3000</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="C29" s="51" t="str">
+      <c r="C29" s="60" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="51" t="str">
+      <c r="E29" s="60" t="str">
         <f>"="</f>
         <v>=</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="61">
         <f>ROUND(C18,2)</f>
         <v>1.28</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="51"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="5">
         <v>3000</v>
       </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3641,10 +3712,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875C5E47-CCB6-4DE6-A0B3-ACBDAB1D29D8}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3652,46 +3723,72 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>103</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="53">
+        <f>NORMSINV(0.975)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="5">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="46">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>108</v>
       </c>
@@ -3706,9 +3803,17 @@
         <f>B7*(B2/SQRT(B3))</f>
         <v>1.7530450811531626</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="46" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="31">
@@ -3723,8 +3828,16 @@
         <f>D9-C9</f>
         <v>3.5060901623063501</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>2.5</v>
       </c>
@@ -3739,29 +3852,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="65" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="65"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="73"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="46">
         <f>NORMSINV(0.95)</f>
         <v>1.6448536269514715</v>
       </c>
@@ -3771,7 +3884,7 @@
       <c r="A17" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="67">
+      <c r="B17" s="49">
         <v>2.5</v>
       </c>
       <c r="C17" s="5" t="str">
@@ -3806,7 +3919,7 @@
         <f>D17</f>
         <v>1.6448536269514715</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="48">
         <f>E17</f>
         <v>20</v>
       </c>
@@ -3898,14 +4011,14 @@
         <f>16000/B28</f>
         <v>160</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="51">
         <f>B30-E28</f>
         <v>158.04003601545995</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="52">
         <f>B30+E28</f>
         <v>161.95996398454005</v>
       </c>
@@ -3923,10 +4036,7 @@
         <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
-      </c>
-      <c r="E33">
-        <v>1.88</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3935,6 +4045,109 @@
       </c>
       <c r="B34" s="5">
         <v>2.35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="47">
+        <v>1.88</v>
+      </c>
+      <c r="C36">
+        <f>_xlfn.NORM.S.DIST(B36,TRUE)</f>
+        <v>0.96994596103880026</v>
+      </c>
+      <c r="D36" s="5">
+        <f>1-C36</f>
+        <v>3.0054038961199736E-2</v>
+      </c>
+      <c r="E36" s="54">
+        <f>C36-D36</f>
+        <v>0.93989192207760053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="5">
+        <v>250</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="5">
+        <v>75</v>
+      </c>
+      <c r="D40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="5">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41">
+        <f>B40/SQRT(B41)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="5">
+        <v>230</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42">
+        <f>_xlfn.NORM.DIST(E39,E40,E41,TRUE)</f>
+        <v>8.1975359245961311E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="24">
+        <f>1-E42</f>
+        <v>0.99180246407540384</v>
       </c>
     </row>
   </sheetData>
